--- a/results/[6_green_friendly]_#_co2_price.xlsx
+++ b/results/[6_green_friendly]_#_co2_price.xlsx
@@ -447,7 +447,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>231</v>
+        <v>62.7</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +478,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>253</v>
+        <v>214.5</v>
       </c>
     </row>
   </sheetData>
@@ -540,7 +540,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>297</v>
+        <v>390.5000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -571,7 +571,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>319</v>
+        <v>390.5000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +602,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>338.8</v>
+        <v>390.5000000000001</v>
       </c>
     </row>
   </sheetData>
